--- a/source_analyses/es/2012/7_services/7_services_source_analysis.xlsx
+++ b/source_analyses/es/2012/7_services/7_services_source_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Electricity" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
     <t>Length</t>
   </si>
   <si>
-    <t>[1] Fleiter et al. (2010) Electricity demand in the European services sector: A detailed bottom-up estimate by sector and by end-use</t>
+    <t>[1] Fraunhofer_201004_Electricity demand in the European service sector: A detailed bottom-up estimate by sector and by end-use (http://refman.et-model.com/publications/1875)</t>
   </si>
 </sst>
 </file>
@@ -284,8 +284,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -433,7 +435,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -467,6 +469,7 @@
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -500,6 +503,7 @@
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -889,9 +893,7 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="B2:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
